--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T11:03:41+00:00</t>
+    <t>2025-12-01T11:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T11:06:33+00:00</t>
+    <t>2025-12-01T11:28:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-01T11:28:12+00:00</t>
+    <t>2025-12-03T11:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T11:25:41+00:00</t>
+    <t>2025-12-09T09:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T09:11:58+00:00</t>
+    <t>2025-12-09T20:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T20:40:00+00:00</t>
+    <t>2025-12-10T11:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T11:57:53+00:00</t>
+    <t>2025-12-11T14:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T14:06:00+00:00</t>
+    <t>2025-12-11T15:32:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T15:32:27+00:00</t>
+    <t>2025-12-11T15:43:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T15:43:13+00:00</t>
+    <t>2025-12-11T17:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T17:32:20+00:00</t>
+    <t>2025-12-11T18:40:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-11T18:40:42+00:00</t>
+    <t>2025-12-12T15:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T15:37:34+00:00</t>
+    <t>2025-12-12T16:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T16:35:12+00:00</t>
+    <t>2025-12-12T17:10:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T17:10:58+00:00</t>
+    <t>2025-12-12T18:14:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T18:14:30+00:00</t>
+    <t>2025-12-12T19:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
+++ b/StructureDefinition-mii-ex-fall-planned-start-date.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-12T19:10:52+00:00</t>
+    <t>2025-12-13T18:24:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
